--- a/ftest/data/fm23/worked_example_policy_calculation_ri_test.xlsx
+++ b/ftest/data/fm23/worked_example_policy_calculation_ri_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm23\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B779528D-63AD-43A7-9022-A4D5CBC076C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worked examples" sheetId="10" r:id="rId1"/>
@@ -220,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
@@ -848,33 +849,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -884,6 +886,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -902,23 +913,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="2"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,14 +1322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,26 +1548,26 @@
       <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="119">
+      <c r="C10" s="123">
         <v>100</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117">
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121">
         <v>100</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119">
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123">
         <v>100</v>
       </c>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117">
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121">
         <v>100</v>
       </c>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="122"/>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,22 +1598,22 @@
       <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="120">
+      <c r="C12" s="124">
         <v>10000</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="120">
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="124">
         <v>10000</v>
       </c>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="122"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="126"/>
       <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,11 +1662,11 @@
         <v>40</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="105">
+      <c r="C15" s="112">
         <v>10</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="85"/>
@@ -1682,11 +1683,11 @@
         <v>41</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="105">
+      <c r="C16" s="112">
         <v>100</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="83"/>
       <c r="G16" s="83"/>
       <c r="H16" s="84"/>
@@ -1703,11 +1704,11 @@
         <v>42</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="105">
+      <c r="C17" s="112">
         <v>0.5</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
       <c r="F17" s="83"/>
       <c r="G17" s="83"/>
       <c r="H17" s="84"/>
@@ -1743,20 +1744,20 @@
         <v>54</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="105">
+      <c r="C19" s="112">
         <v>0</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="109"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="108"/>
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1764,20 +1765,20 @@
         <v>55</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="105">
+      <c r="C20" s="112">
         <v>100</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="109"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="108"/>
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1785,20 +1786,20 @@
         <v>56</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="110">
+      <c r="C21" s="106">
         <v>1</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="109"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="108"/>
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1806,20 +1807,20 @@
         <v>58</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="105">
+      <c r="C22" s="112">
         <v>100</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="109"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="108"/>
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1827,20 +1828,20 @@
         <v>59</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="105">
-        <v>100</v>
-      </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="109"/>
+      <c r="C23" s="112">
+        <v>200</v>
+      </c>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="108"/>
       <c r="O23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1848,20 +1849,20 @@
         <v>60</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="110">
+      <c r="C24" s="106">
         <v>0.5</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="109"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="20"/>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2050,30 +2051,30 @@
         <v>35</v>
       </c>
       <c r="B31" s="19"/>
-      <c r="C31" s="114">
+      <c r="C31" s="115">
         <f>SUM(C29:E29)</f>
         <v>200</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="114">
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="115">
         <f>SUM(F29:H29)</f>
         <v>200</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="114">
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="115">
         <f>SUM(I29:K29)</f>
         <v>200</v>
       </c>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="114">
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="115">
         <f>SUM(L29:N29)</f>
         <v>200</v>
       </c>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
       <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2081,30 +2082,30 @@
         <v>36</v>
       </c>
       <c r="B32" s="19"/>
-      <c r="C32" s="111">
+      <c r="C32" s="109">
         <f>MIN(C31,C10)</f>
         <v>100</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="111">
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="109">
         <f>MIN(F31,F10)</f>
         <v>100</v>
       </c>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="111">
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="109">
         <f>MIN(I31,I10)</f>
         <v>100</v>
       </c>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="111">
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="109">
         <f>MIN(L31,L10)</f>
         <v>100</v>
       </c>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
       <c r="O32" s="22"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2132,24 +2133,24 @@
         <v>37</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="C34" s="123">
+      <c r="C34" s="118">
         <f>SUM(C32:H32)</f>
         <v>200</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="123">
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="118">
         <f>SUM(I32:N32)</f>
         <v>200</v>
       </c>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="125"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="120"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
     </row>
@@ -2158,24 +2159,24 @@
         <v>38</v>
       </c>
       <c r="B35" s="19"/>
-      <c r="C35" s="111">
+      <c r="C35" s="109">
         <f>MIN(C34,C12)</f>
         <v>200</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="111">
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="109">
         <f>MIN(I34,I12)</f>
         <v>200</v>
       </c>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="113"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="111"/>
       <c r="O35" s="22"/>
       <c r="P35" s="38"/>
     </row>
@@ -2184,24 +2185,24 @@
         <v>22</v>
       </c>
       <c r="B36" s="19"/>
-      <c r="C36" s="111">
+      <c r="C36" s="109">
         <f>C35</f>
         <v>200</v>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="111">
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="109">
         <f>I35</f>
         <v>200</v>
       </c>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="113"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="111"/>
       <c r="O36" s="22"/>
       <c r="P36" s="38"/>
     </row>
@@ -2344,24 +2345,24 @@
         <v>48</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="C40" s="114">
+      <c r="C40" s="115">
         <f>SUM(C38:E38)</f>
         <v>100</v>
       </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="114">
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="115">
         <f>SUM(F38:N38)</f>
         <v>300</v>
       </c>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="117"/>
       <c r="O40" s="22">
         <f>O36</f>
         <v>0</v>
@@ -2373,23 +2374,23 @@
         <v>46</v>
       </c>
       <c r="B41" s="19"/>
-      <c r="C41" s="111">
+      <c r="C41" s="109">
         <f>C17*MIN(C16,MAX(C40-C15,0))</f>
         <v>45</v>
       </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="111">
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="109">
         <v>0</v>
       </c>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="113"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="111"/>
       <c r="O41" s="22">
         <f>MIN(O40,O14)</f>
         <v>0</v>
@@ -2401,24 +2402,24 @@
         <v>52</v>
       </c>
       <c r="B42" s="19"/>
-      <c r="C42" s="111">
+      <c r="C42" s="109">
         <f>C40-C41</f>
         <v>55</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="111">
+      <c r="D42" s="110"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="109">
         <f>F40-F41</f>
         <v>300</v>
       </c>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="113"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="111"/>
       <c r="O42" s="22"/>
       <c r="P42" s="38"/>
     </row>
@@ -2563,21 +2564,21 @@
         <v>50</v>
       </c>
       <c r="B46" s="48"/>
-      <c r="C46" s="107">
+      <c r="C46" s="113">
         <f>SUM(C44:N44)</f>
         <v>355</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
       <c r="O46" s="93"/>
       <c r="P46" s="103"/>
     </row>
@@ -2586,21 +2587,21 @@
         <v>51</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="105">
+      <c r="C47" s="112">
         <f>$C$21*MIN(C20,MAX(C46-C19))</f>
         <v>100</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
       <c r="P47" s="103"/>
     </row>
     <row r="48" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -2608,21 +2609,21 @@
         <v>57</v>
       </c>
       <c r="B48" s="19"/>
-      <c r="C48" s="105">
+      <c r="C48" s="112">
         <f>C46-C47</f>
         <v>255</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
       <c r="P48" s="103"/>
     </row>
     <row r="49" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -2744,21 +2745,21 @@
         <v>61</v>
       </c>
       <c r="B51" s="19"/>
-      <c r="C51" s="105">
+      <c r="C51" s="112">
         <f>$C$24*MIN($C$23,MAX($C$46-$C$22))</f>
-        <v>50</v>
-      </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="106"/>
+        <v>100</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
+      <c r="N51" s="107"/>
       <c r="P51" s="103"/>
     </row>
     <row r="52" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -2766,21 +2767,21 @@
         <v>62</v>
       </c>
       <c r="B52" s="19"/>
-      <c r="C52" s="105">
+      <c r="C52" s="112">
         <f>C48-C51</f>
-        <v>205</v>
-      </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
+        <v>155</v>
+      </c>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
+      <c r="N52" s="107"/>
       <c r="P52" s="103"/>
     </row>
     <row r="53" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -2845,55 +2846,55 @@
       <c r="B54" s="102"/>
       <c r="C54" s="90">
         <f>C53*$C$52</f>
-        <v>15.880281690140844</v>
+        <v>12.007042253521126</v>
       </c>
       <c r="D54" s="91">
         <f t="shared" ref="D54:N54" si="13">D53*$C$52</f>
-        <v>7.9401408450704221</v>
+        <v>6.003521126760563</v>
       </c>
       <c r="E54" s="91">
         <f t="shared" si="13"/>
-        <v>7.9401408450704221</v>
+        <v>6.003521126760563</v>
       </c>
       <c r="F54" s="91">
         <f t="shared" si="13"/>
-        <v>28.87323943661972</v>
+        <v>21.83098591549296</v>
       </c>
       <c r="G54" s="91">
         <f t="shared" si="13"/>
-        <v>14.43661971830986</v>
+        <v>10.91549295774648</v>
       </c>
       <c r="H54" s="91">
         <f t="shared" si="13"/>
-        <v>14.43661971830986</v>
+        <v>10.91549295774648</v>
       </c>
       <c r="I54" s="91">
         <f t="shared" si="13"/>
-        <v>28.87323943661972</v>
+        <v>21.83098591549296</v>
       </c>
       <c r="J54" s="91">
         <f t="shared" si="13"/>
-        <v>14.43661971830986</v>
+        <v>10.91549295774648</v>
       </c>
       <c r="K54" s="91">
         <f t="shared" si="13"/>
-        <v>14.43661971830986</v>
+        <v>10.91549295774648</v>
       </c>
       <c r="L54" s="91">
         <f t="shared" si="13"/>
-        <v>28.87323943661972</v>
+        <v>21.83098591549296</v>
       </c>
       <c r="M54" s="91">
         <f t="shared" si="13"/>
-        <v>14.43661971830986</v>
+        <v>10.91549295774648</v>
       </c>
       <c r="N54" s="91">
         <f t="shared" si="13"/>
-        <v>14.43661971830986</v>
+        <v>10.91549295774648</v>
       </c>
       <c r="O54" s="104">
         <f>SUM(C54:N54)</f>
-        <v>204.99999999999997</v>
+        <v>155.00000000000006</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -3083,7 +3084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3121,7 +3122,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="105" t="s">
         <v>64</v>
       </c>
     </row>

--- a/ftest/data/fm23/worked_example_policy_calculation_ri_test.xlsx
+++ b/ftest/data/fm23/worked_example_policy_calculation_ri_test.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64_2\home\Joh\ktest\ftest\data\fm23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B779528D-63AD-43A7-9022-A4D5CBC076C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAB7E4D-5F47-4EC0-A4FB-4AA053AA8D22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worked examples" sheetId="10" r:id="rId1"/>
     <sheet name="Oasis Implementation" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Oasis Implementation</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Reinsurance inuring level 1</t>
   </si>
   <si>
-    <t>Direct Level 1</t>
-  </si>
-  <si>
-    <t>Direct Level 2</t>
-  </si>
-  <si>
     <t>Apply Location Fac</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>Sum by portfolio</t>
   </si>
   <si>
-    <t>Apply excess of loss layer 1</t>
-  </si>
-  <si>
     <t>Loss Net of Location Fac</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t>Excess of Loss 1 Share</t>
   </si>
   <si>
-    <t>Net of excess of loss layer 1</t>
-  </si>
-  <si>
     <t>Excess of Loss 2 Attachment</t>
   </si>
   <si>
@@ -206,16 +194,34 @@
     <t>Excess of Loss 2 Share</t>
   </si>
   <si>
-    <t>Apply excess of loss layer 2</t>
-  </si>
-  <si>
-    <t>Net of excess of loss layer 2</t>
-  </si>
-  <si>
     <t>Loss allocation % (allocrule2)</t>
   </si>
   <si>
     <t>To be completed</t>
+  </si>
+  <si>
+    <t>Loss allocation allocrule2</t>
+  </si>
+  <si>
+    <t>Loss allocation allocrule1</t>
+  </si>
+  <si>
+    <t>Direct Level</t>
+  </si>
+  <si>
+    <t>Loss allocation % (allocrule1,2)</t>
+  </si>
+  <si>
+    <t>Net of excess layer 1 loss</t>
+  </si>
+  <si>
+    <t>Excess layer 1 loss</t>
+  </si>
+  <si>
+    <t>Excess layer 2 loss</t>
+  </si>
+  <si>
+    <t>Net of excess layer 2 loss</t>
   </si>
 </sst>
 </file>
@@ -228,7 +234,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -323,6 +329,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -575,7 +587,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -682,10 +694,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -735,9 +743,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -772,9 +777,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -784,9 +786,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -804,21 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -850,14 +834,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -865,27 +867,30 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -895,22 +900,50 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1326,68 +1359,68 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:N47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.53125" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.44140625" customWidth="1"/>
+    <col min="17" max="17" width="21.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="50" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="48" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="65"/>
+      <c r="N4" s="62"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
@@ -1396,8 +1429,8 @@
         <v>4</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="51" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="49" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="6"/>
@@ -1406,13 +1439,13 @@
         <v>24</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="65"/>
+      <c r="N5" s="62"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="11"/>
@@ -1421,25 +1454,25 @@
         <v>5</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="63"/>
+      <c r="I6" s="50" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="66"/>
+      <c r="N6" s="63"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1454,10 +1487,10 @@
       <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1472,38 +1505,38 @@
       <c r="M7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="64" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="65"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="53">
         <v>1000</v>
       </c>
       <c r="D9" s="21">
@@ -1518,10 +1551,10 @@
       <c r="G9" s="21">
         <v>500</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="65">
         <v>500</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="53">
         <v>1000</v>
       </c>
       <c r="J9" s="21">
@@ -1536,362 +1569,362 @@
       <c r="M9" s="21">
         <v>500</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="65">
         <v>500</v>
       </c>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="123">
+      <c r="C10" s="107">
         <v>100</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121">
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103">
         <v>100</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123">
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="107">
         <v>100</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121">
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103">
         <v>100</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="122"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="104"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="69"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="26"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="108">
         <v>10000</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="124">
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="108">
         <v>10000</v>
       </c>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="126"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="27"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="70"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="27"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="58"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="58"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="71"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="29"/>
       <c r="Q14" s="30"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="112">
+      <c r="C15" s="99">
         <v>10</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="85"/>
+      <c r="N15" s="80"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="112">
+      <c r="C16" s="99">
         <v>100</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="112">
+      <c r="C17" s="99">
         <v>0.5</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="99">
+        <v>0</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="99">
+        <v>100</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="20"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="112">
+        <v>1</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="112">
-        <v>0</v>
-      </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="20"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="99">
+        <v>100</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="112">
-        <v>100</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="20"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="99">
+        <v>200</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="106">
-        <v>1</v>
-      </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="20"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="112">
-        <v>100</v>
-      </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="20"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="112">
-        <v>200</v>
-      </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="20"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="106">
+      <c r="C24" s="112">
         <v>0.5</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="111"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="59"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="59"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="57"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
-      <c r="N25" s="72"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="20"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="58">
         <v>0.1</v>
       </c>
       <c r="D26" s="33">
@@ -1906,10 +1939,10 @@
       <c r="G26" s="33">
         <v>0.1</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="70">
         <v>0.1</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="58">
         <v>0.1</v>
       </c>
       <c r="J26" s="33">
@@ -1924,57 +1957,57 @@
       <c r="M26" s="33">
         <v>0.1</v>
       </c>
-      <c r="N26" s="73">
+      <c r="N26" s="70">
         <v>0.1</v>
       </c>
       <c r="O26" s="20"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="56"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="56"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="69"/>
+      <c r="N27" s="66"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="59"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="59"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
-      <c r="N28" s="72"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="53">
         <f t="shared" ref="C29:N29" si="0">C26*C9</f>
         <v>100</v>
       </c>
@@ -1994,11 +2027,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="65">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="53">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2018,7 +2051,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="N29" s="68">
+      <c r="N29" s="65">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2027,1056 +2060,1133 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="43"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="120">
+        <f>C29/$O$29</f>
+        <v>0.125</v>
+      </c>
+      <c r="D30" s="89">
+        <f t="shared" ref="D30:N30" si="2">D29/$O$29</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E30" s="89">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F30" s="89">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="G30" s="89">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H30" s="121">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I30" s="120">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="J30" s="89">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K30" s="89">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L30" s="89">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="M30" s="89">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N30" s="121">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="43"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="115">
+      <c r="B32" s="19"/>
+      <c r="C32" s="101">
         <f>SUM(C29:E29)</f>
         <v>200</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="115">
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="101">
         <f>SUM(F29:H29)</f>
         <v>200</v>
       </c>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="115">
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="101">
         <f>SUM(I29:K29)</f>
         <v>200</v>
       </c>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="115">
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="101">
         <f>SUM(L29:N29)</f>
         <v>200</v>
       </c>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="35"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="123">
+        <f>SUM(C32:N32)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="109">
-        <f>MIN(C31,C10)</f>
+      <c r="B33" s="19"/>
+      <c r="C33" s="105">
+        <f>MIN(C32,C10)</f>
         <v>100</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="109">
-        <f>MIN(F31,F10)</f>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="105">
+        <f>MIN(F32,F10)</f>
         <v>100</v>
       </c>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="109">
-        <f>MIN(I31,I10)</f>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="105">
+        <f>MIN(I32,I10)</f>
         <v>100</v>
       </c>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="109">
-        <f>MIN(L31,L10)</f>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="105">
+        <f>MIN(L32,L10)</f>
         <v>100</v>
       </c>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="22"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="38"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="123">
+        <f>SUM(C33:N33)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="122">
+        <f>$C$33/$O$33*C30/SUM($C$30:$E$30)</f>
+        <v>0.125</v>
+      </c>
+      <c r="D34" s="122">
+        <f>$C$33/$O$33*D30/SUM($C$30:$E$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E34" s="122">
+        <f>$C$33/$O$33*E30/SUM($C$30:$E$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F34" s="122">
+        <f>$F$33/$O$33*F30/SUM($F$30:$H$30)</f>
+        <v>0.125</v>
+      </c>
+      <c r="G34" s="122">
+        <f>$F$33/$O$33*G30/SUM($F$30:$H$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H34" s="122">
+        <f>$F$33/$O$33*H30/SUM($F$30:$H$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I34" s="122">
+        <f>$I$33/$O$33*I30/SUM($I$30:$K$30)</f>
+        <v>0.125</v>
+      </c>
+      <c r="J34" s="122">
+        <f>$I$33/$O$33*J30/SUM($I$30:$K$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K34" s="122">
+        <f>$I$33/$O$33*K30/SUM($I$30:$K$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L34" s="122">
+        <f>$L$33/$O$33*L30/SUM($L$30:$N$30)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M34" s="122">
+        <f>$L$33/$O$33*M30/SUM($L$30:$N$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N34" s="122">
+        <f>$L$33/$O$33*N30/SUM($L$30:$N$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O34" s="22"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="118">
-        <f>SUM(C32:H32)</f>
+      <c r="B35" s="19"/>
+      <c r="C35" s="115">
+        <f>SUM(C33:H33)</f>
         <v>200</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="118">
-        <f>SUM(I32:N32)</f>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="115">
+        <f>SUM(I33:N33)</f>
         <v>200</v>
       </c>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="38"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="109">
-        <f>MIN(C34,C12)</f>
+      <c r="B36" s="19"/>
+      <c r="C36" s="105">
+        <f>MIN(C35,C12)</f>
         <v>200</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="109">
-        <f>MIN(I34,I12)</f>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="105">
+        <f>MIN(I35,I12)</f>
         <v>200</v>
       </c>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="38"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="109">
-        <f>C35</f>
-        <v>200</v>
-      </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="109">
-        <f>I35</f>
-        <v>200</v>
-      </c>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="111"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="114"/>
       <c r="O36" s="22"/>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="18" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B37" s="19"/>
-      <c r="C37" s="61">
-        <f t="shared" ref="C37:H37" si="2">C29/SUM($C$29:$H$29)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D37" s="40">
-        <f t="shared" si="2"/>
+      <c r="C37" s="105">
+        <f>C36</f>
+        <v>200</v>
+      </c>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="105">
+        <f>I36</f>
+        <v>200</v>
+      </c>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="22">
+        <f>SUM(C37:N37)</f>
+        <v>400</v>
+      </c>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="59">
+        <f>$C$37/$O$37*C30/SUM($C$30:$H$30)</f>
         <v>0.125</v>
       </c>
-      <c r="E37" s="40">
-        <f t="shared" si="2"/>
+      <c r="D38" s="40">
+        <f>$C$37/$O$37*D30/SUM($C$30:$H$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E38" s="40">
+        <f>$C$37/$O$37*E30/SUM($C$30:$H$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F38" s="40">
+        <f>$C$37/$O$37*F30/SUM($C$30:$H$30)</f>
         <v>0.125</v>
       </c>
-      <c r="F37" s="40">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="G37" s="40">
-        <f t="shared" si="2"/>
+      <c r="G38" s="40">
+        <f>$C$37/$O$37*G30/SUM($C$30:$H$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H38" s="71">
+        <f>$C$37/$O$37*H30/SUM($C$30:$H$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I38" s="59">
+        <f>$I$37/$O$37*I30/SUM($I$30:$N$30)</f>
         <v>0.125</v>
       </c>
-      <c r="H37" s="74">
-        <f t="shared" si="2"/>
+      <c r="J38" s="59">
+        <f>$I$37/$O$37*J30/SUM($I$30:$N$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K38" s="59">
+        <f>$I$37/$O$37*K30/SUM($I$30:$N$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L38" s="59">
+        <f>$I$37/$O$37*L30/SUM($I$30:$N$30)</f>
         <v>0.125</v>
       </c>
-      <c r="I37" s="61">
-        <f t="shared" ref="I37:N37" si="3">I29/SUM($I$29:$N$29)</f>
-        <v>0.25</v>
-      </c>
-      <c r="J37" s="40">
+      <c r="M38" s="59">
+        <f>$I$37/$O$37*M30/SUM($I$30:$N$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N38" s="59">
+        <f>$I$37/$O$37*N30/SUM($I$30:$N$30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="124">
+        <f>$O$37*C38</f>
+        <v>50</v>
+      </c>
+      <c r="D39" s="125">
+        <f t="shared" ref="D39:N39" si="3">$O$37*D38</f>
+        <v>25</v>
+      </c>
+      <c r="E39" s="125">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="K37" s="40">
+        <v>25</v>
+      </c>
+      <c r="F39" s="125">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="L37" s="40">
+        <v>50</v>
+      </c>
+      <c r="G39" s="125">
         <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="M37" s="40">
+        <v>25</v>
+      </c>
+      <c r="H39" s="126">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="N37" s="74">
+        <v>25</v>
+      </c>
+      <c r="I39" s="124">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="78">
-        <f t="shared" ref="C38:H38" si="4">$C$36*C37</f>
         <v>50</v>
       </c>
-      <c r="D38" s="79">
+      <c r="J39" s="125">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K39" s="125">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L39" s="125">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M39" s="125">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N39" s="126">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="O39" s="82">
+        <f>SUM(C39:N39)</f>
+        <v>400</v>
+      </c>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="124">
+        <f>$O$39*C30</f>
+        <v>50</v>
+      </c>
+      <c r="D40" s="124">
+        <f t="shared" ref="D40:N40" si="4">$O$39*D30</f>
+        <v>25</v>
+      </c>
+      <c r="E40" s="124">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="E38" s="79">
+      <c r="F40" s="124">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G40" s="124">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="F38" s="79">
+      <c r="H40" s="124">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="I40" s="124">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="G38" s="79">
+      <c r="J40" s="124">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H38" s="80">
+      <c r="K40" s="124">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I38" s="78">
-        <f t="shared" ref="I38:N38" si="5">$I$36*I37</f>
+      <c r="L40" s="124">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="J38" s="79">
+      <c r="M40" s="124">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="N40" s="124">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="O40" s="82"/>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="38"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="101">
+        <f>SUM(C39:E39)</f>
+        <v>100</v>
+      </c>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="101">
+        <f>SUM(F39:N39)</f>
+        <v>300</v>
+      </c>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="22">
+        <f>O37</f>
+        <v>400</v>
+      </c>
+      <c r="P43" s="38"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="105">
+        <f>C17*MIN(C16,MAX(C43-C15,0))</f>
+        <v>45</v>
+      </c>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="105">
+        <v>0</v>
+      </c>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="22">
+        <f>MIN(O43,O14)</f>
+        <v>400</v>
+      </c>
+      <c r="P44" s="38"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="105">
+        <f>C43-C44</f>
+        <v>55</v>
+      </c>
+      <c r="D45" s="106"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="105">
+        <f>F43-F44</f>
+        <v>300</v>
+      </c>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="22">
+        <f>SUM(C45:N45)</f>
+        <v>355</v>
+      </c>
+      <c r="P45" s="38"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="127">
+        <f>C40/SUM($C$40:$E$40)*$C$45/$O$45</f>
+        <v>7.746478873239436E-2</v>
+      </c>
+      <c r="D46" s="128">
+        <f t="shared" ref="D46:E46" si="5">D40/SUM($C$40:$E$40)*$C$45/$O$45</f>
+        <v>3.873239436619718E-2</v>
+      </c>
+      <c r="E46" s="128">
         <f t="shared" si="5"/>
+        <v>3.873239436619718E-2</v>
+      </c>
+      <c r="F46" s="127">
+        <f>F40/SUM($F$40:$N$40)*$F$45/$O$45</f>
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="G46" s="128">
+        <f t="shared" ref="G46:N46" si="6">G40/SUM($F$40:$N$40)*$F$45/$O$45</f>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="H46" s="128">
+        <f t="shared" si="6"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="I46" s="128">
+        <f t="shared" si="6"/>
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="J46" s="128">
+        <f t="shared" si="6"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="K46" s="128">
+        <f t="shared" si="6"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="L46" s="128">
+        <f t="shared" si="6"/>
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="M46" s="128">
+        <f t="shared" si="6"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="N46" s="129">
+        <f t="shared" si="6"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="O46" s="22"/>
+      <c r="P46" s="38"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="130">
+        <f>$O$45*C46</f>
+        <v>27.499999999999996</v>
+      </c>
+      <c r="D47" s="131">
+        <f t="shared" ref="D47:N47" si="7">$O$45*D46</f>
+        <v>13.749999999999998</v>
+      </c>
+      <c r="E47" s="131">
+        <f t="shared" si="7"/>
+        <v>13.749999999999998</v>
+      </c>
+      <c r="F47" s="96">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G47" s="97">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="K38" s="79">
-        <f t="shared" si="5"/>
+      <c r="H47" s="97">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="L38" s="79">
-        <f t="shared" si="5"/>
+      <c r="I47" s="97">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M38" s="79">
-        <f t="shared" si="5"/>
+      <c r="J47" s="97">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="N38" s="80">
-        <f t="shared" si="5"/>
+      <c r="K47" s="97">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="O38" s="92">
-        <f>SUM(C38:N38)</f>
-        <v>400</v>
-      </c>
-      <c r="P38" s="38"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="38"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="L47" s="97">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="M47" s="97">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="N47" s="98">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="O47" s="29">
+        <f>SUM(C47:N47)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="87"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="29"/>
+    </row>
+    <row r="49" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="115">
-        <f>SUM(C38:E38)</f>
+      <c r="B49" s="46"/>
+      <c r="C49" s="118">
+        <f>SUM(C47:N47)</f>
+        <v>355</v>
+      </c>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="93"/>
+    </row>
+    <row r="50" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="99">
+        <f>$C$21*MIN(C20,MAX(C49-C19))</f>
         <v>100</v>
       </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="115">
-        <f>SUM(F38:N38)</f>
-        <v>300</v>
-      </c>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="22">
-        <f>O36</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="38"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="109">
-        <f>C17*MIN(C16,MAX(C40-C15,0))</f>
-        <v>45</v>
-      </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="109">
-        <v>0</v>
-      </c>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="22">
-        <f>MIN(O40,O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="38"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="109">
-        <f>C40-C41</f>
-        <v>55</v>
-      </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="109">
-        <f>F40-F41</f>
-        <v>300</v>
-      </c>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="38"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="P50" s="93"/>
+    </row>
+    <row r="51" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="87">
-        <f>C38/SUM($C$38:$E$38)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="88">
-        <f t="shared" ref="D43:E43" si="6">D38/SUM($C$38:$E$38)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E43" s="88">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="F43" s="87">
-        <f>F38/SUM($F$38:$N$38)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G43" s="88">
-        <f t="shared" ref="G43:N43" si="7">G38/SUM($F$38:$N$38)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H43" s="88">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I43" s="88">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J43" s="88">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K43" s="88">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="L43" s="88">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M43" s="88">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N43" s="89">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O43" s="22">
-        <f>O41</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="38"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="99">
+        <f>C49-C50</f>
+        <v>255</v>
+      </c>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="P51" s="93"/>
+    </row>
+    <row r="52" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="46"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="93"/>
+    </row>
+    <row r="53" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="99">
+        <f>$C$24*MIN($C$23,MAX($C$49-$C$22))</f>
+        <v>100</v>
+      </c>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="P53" s="93"/>
+    </row>
+    <row r="54" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="99">
+        <f>C51-C53</f>
+        <v>155</v>
+      </c>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="P54" s="93"/>
+    </row>
+    <row r="55" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="127">
+        <f>C46</f>
+        <v>7.746478873239436E-2</v>
+      </c>
+      <c r="D55" s="128">
+        <f t="shared" ref="D55:N55" si="8">D46</f>
+        <v>3.873239436619718E-2</v>
+      </c>
+      <c r="E55" s="128">
+        <f t="shared" si="8"/>
+        <v>3.873239436619718E-2</v>
+      </c>
+      <c r="F55" s="128">
+        <f t="shared" si="8"/>
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="G55" s="128">
+        <f t="shared" si="8"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="H55" s="128">
+        <f t="shared" si="8"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="I55" s="128">
+        <f t="shared" si="8"/>
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="J55" s="128">
+        <f t="shared" si="8"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="K55" s="128">
+        <f t="shared" si="8"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="L55" s="128">
+        <f t="shared" si="8"/>
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="M55" s="128">
+        <f t="shared" si="8"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="N55" s="128">
+        <f t="shared" si="8"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="O55" s="26"/>
+    </row>
+    <row r="56" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="94">
-        <f>$C$42*C43</f>
-        <v>27.5</v>
-      </c>
-      <c r="D44" s="95">
-        <f t="shared" ref="D44:E44" si="8">$C$42*D43</f>
-        <v>13.75</v>
-      </c>
-      <c r="E44" s="95">
-        <f t="shared" si="8"/>
-        <v>13.75</v>
-      </c>
-      <c r="F44" s="55">
-        <f>$F$42*F43</f>
-        <v>50</v>
-      </c>
-      <c r="G44" s="21">
-        <f t="shared" ref="G44:N44" si="9">$F$42*G43</f>
-        <v>25</v>
-      </c>
-      <c r="H44" s="21">
+      <c r="B56" s="92"/>
+      <c r="C56" s="132">
+        <f>C55*$C$54</f>
+        <v>12.007042253521126</v>
+      </c>
+      <c r="D56" s="133">
+        <f t="shared" ref="D56:N56" si="9">D55*$C$54</f>
+        <v>6.003521126760563</v>
+      </c>
+      <c r="E56" s="133">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="I44" s="21">
+        <v>6.003521126760563</v>
+      </c>
+      <c r="F56" s="133">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="J44" s="21">
+        <v>21.83098591549296</v>
+      </c>
+      <c r="G56" s="133">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="K44" s="21">
+        <v>10.91549295774648</v>
+      </c>
+      <c r="H56" s="133">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="L44" s="21">
+        <v>10.91549295774648</v>
+      </c>
+      <c r="I56" s="133">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="M44" s="21">
+        <v>21.83098591549296</v>
+      </c>
+      <c r="J56" s="133">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="N44" s="68">
+        <v>10.91549295774648</v>
+      </c>
+      <c r="K56" s="133">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="O44" s="29">
-        <f>SUM(C44:N44)</f>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="29"/>
-    </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="113">
-        <f>SUM(C44:N44)</f>
-        <v>355</v>
-      </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="103"/>
-    </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="112">
-        <f>$C$21*MIN(C20,MAX(C46-C19))</f>
-        <v>100</v>
-      </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="P47" s="103"/>
-    </row>
-    <row r="48" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="112">
-        <f>C46-C47</f>
-        <v>255</v>
-      </c>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="107"/>
-      <c r="P48" s="103"/>
-    </row>
-    <row r="49" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="87">
-        <f>C44/$O$44</f>
-        <v>7.746478873239436E-2</v>
-      </c>
-      <c r="D49" s="88">
-        <f t="shared" ref="D49:N49" si="10">D44/$O$44</f>
-        <v>3.873239436619718E-2</v>
-      </c>
-      <c r="E49" s="88">
-        <f t="shared" si="10"/>
-        <v>3.873239436619718E-2</v>
-      </c>
-      <c r="F49" s="88">
-        <f t="shared" si="10"/>
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="G49" s="88">
-        <f t="shared" si="10"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="H49" s="88">
-        <f t="shared" si="10"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="I49" s="88">
-        <f t="shared" si="10"/>
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="J49" s="88">
-        <f t="shared" si="10"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="K49" s="88">
-        <f t="shared" si="10"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="L49" s="88">
-        <f t="shared" si="10"/>
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="M49" s="88">
-        <f t="shared" si="10"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="N49" s="88">
-        <f t="shared" si="10"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="P49" s="103"/>
-    </row>
-    <row r="50" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="94">
-        <f>C49*$C$48</f>
-        <v>19.75352112676056</v>
-      </c>
-      <c r="D50" s="95">
-        <f t="shared" ref="D50:N50" si="11">D49*$C$48</f>
-        <v>9.8767605633802802</v>
-      </c>
-      <c r="E50" s="95">
-        <f t="shared" si="11"/>
-        <v>9.8767605633802802</v>
-      </c>
-      <c r="F50" s="95">
-        <f t="shared" si="11"/>
-        <v>35.91549295774648</v>
-      </c>
-      <c r="G50" s="95">
-        <f t="shared" si="11"/>
-        <v>17.95774647887324</v>
-      </c>
-      <c r="H50" s="95">
-        <f t="shared" si="11"/>
-        <v>17.95774647887324</v>
-      </c>
-      <c r="I50" s="95">
-        <f t="shared" si="11"/>
-        <v>35.91549295774648</v>
-      </c>
-      <c r="J50" s="95">
-        <f t="shared" si="11"/>
-        <v>17.95774647887324</v>
-      </c>
-      <c r="K50" s="95">
-        <f t="shared" si="11"/>
-        <v>17.95774647887324</v>
-      </c>
-      <c r="L50" s="95">
-        <f t="shared" si="11"/>
-        <v>35.91549295774648</v>
-      </c>
-      <c r="M50" s="95">
-        <f t="shared" si="11"/>
-        <v>17.95774647887324</v>
-      </c>
-      <c r="N50" s="95">
-        <f t="shared" si="11"/>
-        <v>17.95774647887324</v>
-      </c>
-      <c r="O50" s="36">
-        <f>SUM(C50:N50)</f>
-        <v>255.00000000000006</v>
-      </c>
-      <c r="P50" s="103"/>
-    </row>
-    <row r="51" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="112">
-        <f>$C$24*MIN($C$23,MAX($C$46-$C$22))</f>
-        <v>100</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="107"/>
-      <c r="P51" s="103"/>
-    </row>
-    <row r="52" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="112">
-        <f>C48-C51</f>
-        <v>155</v>
-      </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="107"/>
-      <c r="P52" s="103"/>
-    </row>
-    <row r="53" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="87">
-        <f>C49</f>
-        <v>7.746478873239436E-2</v>
-      </c>
-      <c r="D53" s="88">
-        <f t="shared" ref="D53:N53" si="12">D49</f>
-        <v>3.873239436619718E-2</v>
-      </c>
-      <c r="E53" s="88">
-        <f t="shared" si="12"/>
-        <v>3.873239436619718E-2</v>
-      </c>
-      <c r="F53" s="88">
-        <f t="shared" si="12"/>
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="G53" s="88">
-        <f t="shared" si="12"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="H53" s="88">
-        <f t="shared" si="12"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="I53" s="88">
-        <f t="shared" si="12"/>
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="J53" s="88">
-        <f t="shared" si="12"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="K53" s="88">
-        <f t="shared" si="12"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="L53" s="88">
-        <f t="shared" si="12"/>
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="M53" s="88">
-        <f t="shared" si="12"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="N53" s="88">
-        <f t="shared" si="12"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="O53" s="26"/>
-    </row>
-    <row r="54" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="90">
-        <f>C53*$C$52</f>
-        <v>12.007042253521126</v>
-      </c>
-      <c r="D54" s="91">
-        <f t="shared" ref="D54:N54" si="13">D53*$C$52</f>
-        <v>6.003521126760563</v>
-      </c>
-      <c r="E54" s="91">
-        <f t="shared" si="13"/>
-        <v>6.003521126760563</v>
-      </c>
-      <c r="F54" s="91">
-        <f t="shared" si="13"/>
+        <v>10.91549295774648</v>
+      </c>
+      <c r="L56" s="133">
+        <f t="shared" si="9"/>
         <v>21.83098591549296</v>
       </c>
-      <c r="G54" s="91">
-        <f t="shared" si="13"/>
+      <c r="M56" s="133">
+        <f t="shared" si="9"/>
         <v>10.91549295774648</v>
       </c>
-      <c r="H54" s="91">
-        <f t="shared" si="13"/>
+      <c r="N56" s="133">
+        <f t="shared" si="9"/>
         <v>10.91549295774648</v>
       </c>
-      <c r="I54" s="91">
-        <f t="shared" si="13"/>
-        <v>21.83098591549296</v>
-      </c>
-      <c r="J54" s="91">
-        <f t="shared" si="13"/>
-        <v>10.91549295774648</v>
-      </c>
-      <c r="K54" s="91">
-        <f t="shared" si="13"/>
-        <v>10.91549295774648</v>
-      </c>
-      <c r="L54" s="91">
-        <f t="shared" si="13"/>
-        <v>21.83098591549296</v>
-      </c>
-      <c r="M54" s="91">
-        <f t="shared" si="13"/>
-        <v>10.91549295774648</v>
-      </c>
-      <c r="N54" s="91">
-        <f t="shared" si="13"/>
-        <v>10.91549295774648</v>
-      </c>
-      <c r="O54" s="104">
-        <f>SUM(C54:N54)</f>
+      <c r="O56" s="94">
+        <f>SUM(C56:N56)</f>
         <v>155.00000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-    </row>
-    <row r="56" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="19"/>
       <c r="B57" s="19"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+    </row>
+    <row r="58" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="99"/>
-    </row>
-    <row r="59" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="39"/>
       <c r="B59" s="19"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-    </row>
-    <row r="60" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-    </row>
-    <row r="61" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+    </row>
+    <row r="61" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-    </row>
-    <row r="62" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="98"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="C63" s="98"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="98"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="98"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="98"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="98"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+    </row>
+    <row r="62" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+    </row>
+    <row r="63" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="88"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="25"/>
+      <c r="C65" s="88"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="25"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C67" s="88"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C68" s="88"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C70" s="88"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C71" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:N45"/>
+    <mergeCell ref="C53:N53"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F43:N43"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C23:N23"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L31:N31"/>
     <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:N12"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="F41:N41"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="I32:K32"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="C52:N52"/>
-    <mergeCell ref="C46:N46"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="C33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -3094,36 +3204,36 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="63.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.46484375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.46484375" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="11" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="18" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
-        <v>64</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="95" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
